--- a/documents/Query results/Recursive_queries_SIMPLIFIED_THIRDRUN.xlsx
+++ b/documents/Query results/Recursive_queries_SIMPLIFIED_THIRDRUN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/graafitietokantaprojekti/documents/Query results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456309C2-EED9-E744-B28B-729A2FCE3492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18E34EC-B36C-7647-A9EB-FB6B862B1296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
+    <workbookView xWindow="7320" yWindow="13500" windowWidth="28800" windowHeight="27520" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -281,6 +281,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -293,22 +299,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
   <dimension ref="A2:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,9 +1015,9 @@
         <f t="shared" si="0"/>
         <v>6.62</v>
       </c>
-      <c r="F20" t="e">
-        <f>ROUND(#REF!,2)</f>
-        <v>#REF!</v>
+      <c r="F20">
+        <f>ROUND(F21,2)</f>
+        <v>82.08</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
@@ -1076,118 +1076,118 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="14">
         <f>B18</f>
         <v>4473</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="10">
         <f>B20</f>
         <v>14.94</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="12">
         <f>B19</f>
         <v>0.80952380952380953</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <f>C18</f>
         <v>1</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="10">
         <f>C20</f>
         <v>0.4</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="12">
         <f>C19</f>
         <v>-868</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="11"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="14">
         <f>D18</f>
         <v>150</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="10">
         <f>D20</f>
         <v>18</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="12">
         <f>D19</f>
         <v>-4.68</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="16">
         <f>E18</f>
         <v>153</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="10">
         <f>E20</f>
         <v>6.62</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="12">
         <f>E19</f>
         <v>-4.6797385620915035</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="11"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="14">
         <f>F18</f>
         <v>852</v>
       </c>
-      <c r="C28" s="16" t="e">
+      <c r="C28" s="10">
         <f>F20</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D28" s="10">
+        <v>82.08</v>
+      </c>
+      <c r="D28" s="12">
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <f>G18</f>
         <v>869</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="10">
         <f>G20</f>
         <v>108.07</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="12">
         <f>G19</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="11"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -1619,131 +1619,145 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="18">
         <f>B48</f>
         <v>45004</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="10">
         <f>B50</f>
         <v>208.76</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="12">
         <f>B49</f>
         <v>0.91862945515954142</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="16">
         <f>C48</f>
         <v>10</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="10">
         <f>C50</f>
         <v>0.64</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="12">
         <f>C49</f>
         <v>-510.7</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="11"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="13"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="18">
         <f>D48</f>
         <v>1239446</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="10">
         <f>D50</f>
         <v>149799.53</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="12">
         <f>D49</f>
         <v>0.99704545417872181</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="16">
         <f>E48</f>
         <v>1637223</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="10">
         <f>E50</f>
         <v>273613.61</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="12">
         <f>E49</f>
         <v>0.99687458580779775</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="11"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="18">
         <f>F48</f>
         <v>3662</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="10">
         <f>F50</f>
         <v>997.6</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="12">
         <f>F49</f>
         <v>0</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="16">
         <f>G48</f>
         <v>5117</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="10">
         <f>G50</f>
         <v>291.94</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="12">
         <f>G49</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="11"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="13"/>
     </row>
     <row r="99" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="103" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
@@ -1758,27 +1772,13 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
